--- a/3. Final/holidays.xlsx
+++ b/3. Final/holidays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khl06\Desktop\Mr.GentleKim\21KDT\00. 21KDT-Project\3. Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5604A9D6-19A7-4DEC-ADFB-F49037648121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C173E2-4A81-4439-ACD2-12ADDEE12550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="8724" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="35">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,14 @@
   </si>
   <si>
     <t>전국동시지방선거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근로자의 날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연말</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3913,13 +3921,16 @@
       <c r="E122" t="s">
         <v>8</v>
       </c>
+      <c r="F122" t="s">
+        <v>33</v>
+      </c>
       <c r="G122" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>O</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -4930,13 +4941,16 @@
       <c r="E158" t="s">
         <v>10</v>
       </c>
+      <c r="F158" t="s">
+        <v>25</v>
+      </c>
       <c r="G158" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>O</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -10781,13 +10795,16 @@
       <c r="E366" t="s">
         <v>6</v>
       </c>
+      <c r="F366" t="s">
+        <v>34</v>
+      </c>
       <c r="G366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H366" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>O</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
@@ -14184,13 +14201,16 @@
       <c r="E487" t="s">
         <v>10</v>
       </c>
+      <c r="F487" t="s">
+        <v>33</v>
+      </c>
       <c r="G487" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H487" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>O</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.3">
@@ -21049,13 +21069,16 @@
       <c r="E731" t="s">
         <v>8</v>
       </c>
+      <c r="F731" t="s">
+        <v>34</v>
+      </c>
       <c r="G731" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="H731" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>O</v>
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.3">
@@ -24489,13 +24512,16 @@
       <c r="E853" t="s">
         <v>12</v>
       </c>
+      <c r="F853" t="s">
+        <v>33</v>
+      </c>
       <c r="G853" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="H853" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>O</v>
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.3">
@@ -31351,13 +31377,16 @@
       <c r="E1097" t="s">
         <v>11</v>
       </c>
+      <c r="F1097" t="s">
+        <v>34</v>
+      </c>
       <c r="G1097" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="H1097" t="str">
         <f t="shared" si="89"/>
-        <v/>
+        <v>O</v>
       </c>
     </row>
     <row r="1098" spans="1:8" x14ac:dyDescent="0.3">
@@ -34754,6 +34783,9 @@
       <c r="E1218" t="s">
         <v>13</v>
       </c>
+      <c r="F1218" t="s">
+        <v>33</v>
+      </c>
       <c r="G1218" t="str">
         <f t="shared" si="93"/>
         <v>O</v>
@@ -41625,13 +41657,16 @@
       <c r="E1462" t="s">
         <v>12</v>
       </c>
+      <c r="F1462" t="s">
+        <v>34</v>
+      </c>
       <c r="G1462" t="str">
         <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="H1462" t="str">
         <f t="shared" si="114"/>
-        <v/>
+        <v>O</v>
       </c>
     </row>
     <row r="1463" spans="1:8" x14ac:dyDescent="0.3">
@@ -45031,6 +45066,9 @@
       <c r="E1583" t="s">
         <v>14</v>
       </c>
+      <c r="F1583" t="s">
+        <v>33</v>
+      </c>
       <c r="G1583" t="str">
         <f t="shared" si="123"/>
         <v>O</v>
@@ -51898,6 +51936,9 @@
       </c>
       <c r="E1827" t="s">
         <v>13</v>
+      </c>
+      <c r="F1827" t="s">
+        <v>34</v>
       </c>
       <c r="G1827" t="str">
         <f t="shared" si="143"/>
